--- a/Load test results.xlsx
+++ b/Load test results.xlsx
@@ -11,11 +11,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>LOAD TEST</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Server URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://random-data-api.com/api/v2/users</t>
+    </r>
+  </si>
+  <si>
     <t>TEST NAME</t>
   </si>
   <si>
@@ -67,9 +83,6 @@
     <t>Test-05</t>
   </si>
   <si>
-    <t>0%%</t>
-  </si>
-  <si>
     <t>Test -06</t>
   </si>
   <si>
@@ -77,13 +90,16 @@
   </si>
   <si>
     <t>2.8/Sec</t>
+  </si>
+  <si>
+    <t>Load test successful</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -97,9 +113,8 @@
     </font>
     <font/>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -118,13 +133,25 @@
       <name val="Georgia"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,6 +162,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4A86E8"/>
         <bgColor rgb="FF4A86E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -151,14 +184,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF93C47D"/>
-        <bgColor rgb="FF93C47D"/>
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
       </patternFill>
     </fill>
     <fill>
@@ -270,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -284,67 +323,66 @@
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="9" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="12" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="12" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="12" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="12" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="12" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="12" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="12" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="12" fillId="6" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="4" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="12" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="12" fillId="6" fontId="4" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="6" fontId="4" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="4" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="9" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="12" fillId="7" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -592,8 +630,10 @@
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6">
-      <c r="E6" s="9"/>
+    <row r="6" ht="25.5" customHeight="1">
+      <c r="E6" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -605,69 +645,75 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" s="17">
         <v>12.0</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
+      <c r="G8" s="18">
+        <f>F8*G11</f>
+        <v>720</v>
+      </c>
+      <c r="H8" s="19">
+        <f>G8*G11</f>
+        <v>43200</v>
+      </c>
       <c r="I8" s="17">
         <v>120000.0</v>
       </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9">
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="M9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="M9" s="21"/>
     </row>
     <row r="10">
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="21">
+      <c r="E10" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="17">
         <v>1.0</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="23"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="20"/>
       <c r="K10" s="23">
         <f>I8/(F8*G11*G11)</f>
         <v>2.777777778</v>
@@ -677,7 +723,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" s="17">
         <v>1.0</v>
@@ -699,9 +745,9 @@
       <c r="C12" s="12"/>
       <c r="D12" s="25"/>
       <c r="E12" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="27"/>
+        <v>12</v>
+      </c>
+      <c r="F12" s="19"/>
       <c r="G12" s="26">
         <v>1.0</v>
       </c>
@@ -712,94 +758,95 @@
         <f>I11/G11</f>
         <v>166.6666667</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="27">
         <v>0.0</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="L12" s="21"/>
     </row>
     <row r="13">
       <c r="C13" s="12"/>
       <c r="D13" s="25"/>
       <c r="E13" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="27"/>
+        <v>14</v>
+      </c>
+      <c r="F13" s="19"/>
       <c r="G13" s="26">
         <v>5.0</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="19">
         <f>H12*G13</f>
         <v>300</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="19">
         <f>I12*G13</f>
         <v>833.3333333</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="27">
         <v>0.0</v>
       </c>
       <c r="K13" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" s="12"/>
       <c r="D14" s="25"/>
       <c r="E14" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="27"/>
+        <v>16</v>
+      </c>
+      <c r="F14" s="19"/>
       <c r="G14" s="26">
         <v>10.0</v>
       </c>
       <c r="H14" s="26">
         <v>600.0</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="19">
         <f>I12*G14</f>
         <v>1666.666667</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="27">
         <v>0.0</v>
       </c>
       <c r="K14" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="12"/>
       <c r="D15" s="25"/>
       <c r="E15" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="27"/>
+        <v>17</v>
+      </c>
+      <c r="F15" s="19"/>
       <c r="G15" s="26">
         <v>15.0</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="19">
         <f>H12*G15</f>
         <v>900</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="19">
         <f>I12*G15</f>
         <v>2500</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="27">
         <v>0.0</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" s="12"/>
       <c r="D16" s="25"/>
       <c r="E16" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="27"/>
+        <v>18</v>
+      </c>
+      <c r="F16" s="19"/>
       <c r="G16" s="26">
         <v>15.0</v>
       </c>
@@ -809,13 +856,13 @@
       <c r="I16" s="26">
         <v>2500.0</v>
       </c>
-      <c r="J16" s="26" t="s">
-        <v>18</v>
+      <c r="J16" s="27">
+        <v>0.0</v>
       </c>
       <c r="K16" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="29"/>
+        <v>15</v>
+      </c>
+      <c r="L16" s="28"/>
     </row>
     <row r="17">
       <c r="C17" s="12"/>
@@ -823,53 +870,59 @@
       <c r="E17" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="27"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="26">
         <v>20.0</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="19">
         <f>H12*G17</f>
         <v>1200</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="19">
         <f>I12*G17</f>
         <v>3333.333333</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="27">
         <v>0.0</v>
       </c>
       <c r="K17" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="29"/>
+        <v>15</v>
+      </c>
+      <c r="L17" s="28"/>
     </row>
     <row r="18">
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="30" t="s">
+      <c r="F18" s="30"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19">
-      <c r="E19" s="26"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="26"/>
+      <c r="E19" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E3:K5"/>
     <mergeCell ref="E6:K6"/>
+    <mergeCell ref="E19:K19"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E6"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>